--- a/file/download/kamba.xlsx
+++ b/file/download/kamba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="23256" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="岗巴时数据" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="97">
   <si>
     <t>蓄热水池低温热量</t>
   </si>
@@ -285,6 +285,50 @@
   </si>
   <si>
     <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kWh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m³</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,27 +692,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -676,39 +723,51 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -716,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -724,252 +783,345 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
       <c r="B37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -981,27 +1133,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1009,39 +1164,51 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1057,268 +1224,356 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
         <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
